--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1877.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1877.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.631592035819056</v>
+        <v>1.954938411712646</v>
       </c>
       <c r="B1">
-        <v>4.361380888305149</v>
+        <v>1.922278046607971</v>
       </c>
       <c r="C1">
-        <v>4.30699036122807</v>
+        <v>1.866639494895935</v>
       </c>
       <c r="D1">
-        <v>1.175932050997218</v>
+        <v>2.765007972717285</v>
       </c>
       <c r="E1">
-        <v>0.6924283585778335</v>
+        <v>4.965007305145264</v>
       </c>
     </row>
   </sheetData>
